--- a/1 - Avant Projet/2 - Outils/1 - QQOQCP-C.xlsx
+++ b/1 - Avant Projet/2 - Outils/1 - QQOQCP-C.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BA2D9EBD-F6BC-4C14-9A59-86187FF47CA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127F322C-CB58-4D8B-95A8-EB609800347A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Qui</t>
   </si>
@@ -40,64 +40,28 @@
     <t>Combien</t>
   </si>
   <si>
-    <t>S2 - Avant Projet</t>
-  </si>
-  <si>
-    <t>Élèves + Professeur</t>
-  </si>
-  <si>
-    <t>S2 - Soutenance</t>
-  </si>
-  <si>
-    <t>S3 - Réalisation</t>
-  </si>
-  <si>
-    <t>S3 - Soutenance</t>
-  </si>
-  <si>
-    <t>S4 - Finitions</t>
-  </si>
-  <si>
-    <t>S4 - Soutenance</t>
-  </si>
-  <si>
-    <t>Analyse du besoin + Cahier des charges</t>
-  </si>
-  <si>
-    <t>Rapport d'avant projet</t>
-  </si>
-  <si>
-    <t>Création du jeu étape par étape</t>
-  </si>
-  <si>
-    <t>Rapport de réalisation</t>
-  </si>
-  <si>
-    <t>Finition du jeu après retours</t>
-  </si>
-  <si>
-    <t>Rapport final</t>
-  </si>
-  <si>
-    <t>Définir correctement les objectifs</t>
-  </si>
-  <si>
-    <t>Poffiner les derniers détails</t>
-  </si>
-  <si>
-    <t>Réaliser le projet</t>
-  </si>
-  <si>
-    <t>Outils Gestion de projet</t>
-  </si>
-  <si>
-    <t>Unity</t>
-  </si>
-  <si>
-    <t>3 Mois</t>
-  </si>
-  <si>
-    <t>6 Mois</t>
+    <t>Où</t>
+  </si>
+  <si>
+    <t>Éléments collectés</t>
+  </si>
+  <si>
+    <t>3 élèves + professeur référend</t>
+  </si>
+  <si>
+    <t>IUT et domicile</t>
+  </si>
+  <si>
+    <t>Fin S2</t>
+  </si>
+  <si>
+    <t>Lancer la réalisation du jeu sérieux</t>
+  </si>
+  <si>
+    <t>Cahier des charges sur un jeu sérieux ludique portant sur un cours du DUT MMI</t>
+  </si>
+  <si>
+    <t>Outils d'analyse du besoin + Étude Unity</t>
   </si>
 </sst>
 </file>
@@ -415,132 +379,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
